--- a/Cibertec.PartnerSalesProcessor/PartnerSale.xlsx
+++ b/Cibertec.PartnerSalesProcessor/PartnerSale.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00_Cibertec\Cloud\Modulo 5\En prepaparacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00_Cibertec\RepoCloud\CibertecWebCloud\Cibertec.PartnerSalesProcessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15330" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="15330" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>41511</v>
+        <v>42972</v>
       </c>
       <c r="C2">
         <v>1000000</v>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>41512</v>
+        <v>42973</v>
       </c>
       <c r="C3">
         <v>1000001</v>
@@ -841,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="3">
-        <f>VLOOKUP(C2,ProductList,3,FALSE)</f>
+        <f t="shared" ref="D2:D7" si="0">VLOOKUP(C2,ProductList,3,FALSE)</f>
         <v>45.6</v>
       </c>
       <c r="E2" s="2">
@@ -863,14 +863,14 @@
         <v>39</v>
       </c>
       <c r="D3" s="3">
-        <f>VLOOKUP(C3,ProductList,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>21</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F7" si="0">E3*D3</f>
+        <f t="shared" ref="F3:F7" si="1">E3*D3</f>
         <v>378</v>
       </c>
     </row>
@@ -885,14 +885,14 @@
         <v>46</v>
       </c>
       <c r="D4" s="3">
-        <f>VLOOKUP(C4,ProductList,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -907,14 +907,14 @@
         <v>14</v>
       </c>
       <c r="D5" s="3">
-        <f>VLOOKUP(C5,ProductList,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>23.25</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>232.5</v>
       </c>
     </row>
@@ -929,14 +929,14 @@
         <v>39</v>
       </c>
       <c r="D6" s="3">
-        <f>VLOOKUP(C6,ProductList,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -951,14 +951,14 @@
         <v>46</v>
       </c>
       <c r="D7" s="3">
-        <f>VLOOKUP(C7,ProductList,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E7" s="2">
         <v>16</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
     </row>
